--- a/data/trans_orig/P16A_2_R3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A_2_R3-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>93494</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>77746</v>
+        <v>77721</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>110692</v>
+        <v>111756</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2932283386279232</v>
+        <v>0.2932283386279233</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2438375717784873</v>
+        <v>0.2437574975377682</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3471662638445558</v>
+        <v>0.3505016829115274</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>240</v>
@@ -762,19 +762,19 @@
         <v>136010</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>122889</v>
+        <v>121157</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>151577</v>
+        <v>151835</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4303267524256888</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3888155052275442</v>
+        <v>0.3833357489045054</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4795806685076133</v>
+        <v>0.4803972491987519</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>341</v>
@@ -783,19 +783,19 @@
         <v>229504</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>208860</v>
+        <v>208021</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>252966</v>
+        <v>252215</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3614768951039035</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3289624620944532</v>
+        <v>0.3276406520964371</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3984310733852608</v>
+        <v>0.3972471022907405</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>225351</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>208153</v>
+        <v>207089</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>241099</v>
+        <v>241124</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7067716613720767</v>
+        <v>0.7067716613720768</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.652833736155444</v>
+        <v>0.6494983170884726</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7561624282215127</v>
+        <v>0.7562425024622317</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>298</v>
@@ -833,19 +833,19 @@
         <v>180051</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>164484</v>
+        <v>164226</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>193172</v>
+        <v>194904</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5696732475743111</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5204193314923864</v>
+        <v>0.5196027508012483</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6111844947724561</v>
+        <v>0.6166642510954951</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>528</v>
@@ -854,19 +854,19 @@
         <v>405402</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>381940</v>
+        <v>382691</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>426046</v>
+        <v>426885</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6385231048960966</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6015689266147392</v>
+        <v>0.6027528977092595</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6710375379055471</v>
+        <v>0.6723593479035629</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>118849</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>97738</v>
+        <v>98005</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>143655</v>
+        <v>142594</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.223970802098625</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1841857444347703</v>
+        <v>0.1846902387614084</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.270717005436351</v>
+        <v>0.2687172298380605</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>308</v>
@@ -979,19 +979,19 @@
         <v>215600</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>194031</v>
+        <v>196718</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>235658</v>
+        <v>237005</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3945148791411111</v>
+        <v>0.3945148791411112</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3550467660719234</v>
+        <v>0.3599632658613466</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4312174058041929</v>
+        <v>0.4336823246750021</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>407</v>
@@ -1000,19 +1000,19 @@
         <v>334449</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>303313</v>
+        <v>305049</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>364334</v>
+        <v>364597</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3104973974055278</v>
+        <v>0.3104973974055279</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2815904044506756</v>
+        <v>0.2832026394772735</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3382419240940574</v>
+        <v>0.3384856040257244</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>411798</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>386992</v>
+        <v>388053</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>432909</v>
+        <v>432642</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7760291979013748</v>
+        <v>0.7760291979013749</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.729282994563649</v>
+        <v>0.7312827701619393</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8158142555652294</v>
+        <v>0.8153097612385917</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>409</v>
@@ -1050,19 +1050,19 @@
         <v>330894</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>310836</v>
+        <v>309489</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>352463</v>
+        <v>349776</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6054851208588888</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5687825941958071</v>
+        <v>0.566317675324998</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6449532339280761</v>
+        <v>0.6400367341386534</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>692</v>
@@ -1071,19 +1071,19 @@
         <v>742692</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>712807</v>
+        <v>712544</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>773828</v>
+        <v>772092</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6895026025944722</v>
+        <v>0.6895026025944723</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6617580759059427</v>
+        <v>0.6615143959742753</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7184095955493244</v>
+        <v>0.7167973605227261</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>91576</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>78187</v>
+        <v>77110</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>108276</v>
+        <v>108707</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2898030657541161</v>
+        <v>0.2898030657541162</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2474336609777119</v>
+        <v>0.2440243197685063</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3426537435915931</v>
+        <v>0.3440170947322015</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>253</v>
@@ -1196,19 +1196,19 @@
         <v>150577</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>135800</v>
+        <v>135032</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>165813</v>
+        <v>165776</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4225176929662377</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3810532935552134</v>
+        <v>0.3788983352572745</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4652682406645016</v>
+        <v>0.4651648369296961</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>369</v>
@@ -1217,19 +1217,19 @@
         <v>242153</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>220669</v>
+        <v>222224</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>264483</v>
+        <v>264316</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3601463012925049</v>
+        <v>0.3601463012925047</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3281931396726933</v>
+        <v>0.3305060614779354</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3933563374778549</v>
+        <v>0.3931077747667571</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>224417</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>207717</v>
+        <v>207286</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>237806</v>
+        <v>238883</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7101969342458839</v>
+        <v>0.7101969342458838</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6573462564084069</v>
+        <v>0.6559829052677985</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7525663390222882</v>
+        <v>0.7559756802314936</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>283</v>
@@ -1267,19 +1267,19 @@
         <v>205804</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>190568</v>
+        <v>190605</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>220581</v>
+        <v>221349</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5774823070337624</v>
+        <v>0.5774823070337622</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5347317593354983</v>
+        <v>0.5348351630703037</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6189467064447862</v>
+        <v>0.6211016647427254</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>527</v>
@@ -1288,19 +1288,19 @@
         <v>430222</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>407892</v>
+        <v>408059</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>451706</v>
+        <v>450151</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6398536987074953</v>
+        <v>0.6398536987074952</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6066436625221449</v>
+        <v>0.6068922252332429</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6718068603273062</v>
+        <v>0.6694939385220645</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>109647</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>87397</v>
+        <v>89954</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>133700</v>
+        <v>134102</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2938465538733918</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2342175584738176</v>
+        <v>0.2410691905126111</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3583061349083708</v>
+        <v>0.3593827865218113</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>300</v>
@@ -1413,19 +1413,19 @@
         <v>181928</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>163799</v>
+        <v>162897</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>200802</v>
+        <v>201971</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4311496059582184</v>
+        <v>0.4311496059582186</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3881860276473073</v>
+        <v>0.3860472399489254</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4758770308485198</v>
+        <v>0.4786488324363613</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>392</v>
@@ -1434,19 +1434,19 @@
         <v>291576</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>262498</v>
+        <v>262593</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>324188</v>
+        <v>322210</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3667129929770863</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3301414106114728</v>
+        <v>0.3302617319384634</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4077286245790508</v>
+        <v>0.4052409783426072</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>263498</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>239445</v>
+        <v>239043</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>285748</v>
+        <v>283191</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7061534461266084</v>
+        <v>0.7061534461266082</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.641693865091629</v>
+        <v>0.6406172134781887</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7657824415261819</v>
+        <v>0.758930809487389</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>299</v>
@@ -1484,19 +1484,19 @@
         <v>240033</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>221159</v>
+        <v>219990</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>258162</v>
+        <v>259064</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5688503940417816</v>
+        <v>0.5688503940417817</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.52412296915148</v>
+        <v>0.5213511675636389</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6118139723526927</v>
+        <v>0.6139527600510749</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>499</v>
@@ -1505,19 +1505,19 @@
         <v>503531</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>470919</v>
+        <v>472897</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>532609</v>
+        <v>532514</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6332870070229136</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5922713754209491</v>
+        <v>0.5947590216573928</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6698585893885269</v>
+        <v>0.6697382680615366</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>43879</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35149</v>
+        <v>34565</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>53990</v>
+        <v>53644</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2133541476180669</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1709030768172377</v>
+        <v>0.16806433555717</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2625141759337943</v>
+        <v>0.2608314670130509</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>202</v>
@@ -1630,19 +1630,19 @@
         <v>84030</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>74508</v>
+        <v>73425</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>94532</v>
+        <v>94376</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.367073924417564</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3254805549526261</v>
+        <v>0.3207488191792732</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.412951272135723</v>
+        <v>0.4122698431047227</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>269</v>
@@ -1651,19 +1651,19 @@
         <v>127909</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>112792</v>
+        <v>113574</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>141648</v>
+        <v>142594</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2943265206525011</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2595407578987887</v>
+        <v>0.2613406556341314</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3259410622884617</v>
+        <v>0.3281179233028332</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>161786</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>151675</v>
+        <v>152021</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>170516</v>
+        <v>171100</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7866458523819332</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7374858240662058</v>
+        <v>0.7391685329869492</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8290969231827622</v>
+        <v>0.8319356644428302</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>293</v>
@@ -1701,19 +1701,19 @@
         <v>144888</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>134386</v>
+        <v>134542</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>154410</v>
+        <v>155493</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.632926075582436</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5870487278642769</v>
+        <v>0.5877301568952771</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6745194450473737</v>
+        <v>0.6792511808207266</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>505</v>
@@ -1722,19 +1722,19 @@
         <v>306673</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>292934</v>
+        <v>291988</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>321790</v>
+        <v>321008</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7056734793474989</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6740589377115382</v>
+        <v>0.6718820766971667</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7404592421012119</v>
+        <v>0.7386593443658684</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>76355</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>63305</v>
+        <v>63815</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>90985</v>
+        <v>89526</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2820585080733515</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2338495293329962</v>
+        <v>0.2357333079416081</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3360999779550078</v>
+        <v>0.3307130173674611</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>228</v>
@@ -1847,19 +1847,19 @@
         <v>112564</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>100163</v>
+        <v>100493</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>124549</v>
+        <v>125028</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.4267811597668175</v>
+        <v>0.4267811597668172</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3797643345585259</v>
+        <v>0.3810180071238502</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4722234889805665</v>
+        <v>0.4740384146096556</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>350</v>
@@ -1868,19 +1868,19 @@
         <v>188919</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>171553</v>
+        <v>171619</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>206846</v>
+        <v>207751</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3534779529732598</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3209852034828105</v>
+        <v>0.321109258775427</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3870206772073737</v>
+        <v>0.3887136010968765</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>194352</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>179722</v>
+        <v>181181</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>207402</v>
+        <v>206892</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7179414919266486</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.663900022044992</v>
+        <v>0.6692869826325387</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7661504706670037</v>
+        <v>0.7642666920583919</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>232</v>
@@ -1918,19 +1918,19 @@
         <v>151186</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>139201</v>
+        <v>138722</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>163587</v>
+        <v>163257</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.5732188402331827</v>
+        <v>0.5732188402331824</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5277765110194331</v>
+        <v>0.5259615853903443</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.620235665441474</v>
+        <v>0.6189819928761496</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>481</v>
@@ -1939,19 +1939,19 @@
         <v>345538</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>327611</v>
+        <v>326706</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>362904</v>
+        <v>362838</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6465220470267402</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6129793227926261</v>
+        <v>0.6112863989031234</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6790147965171895</v>
+        <v>0.6788907412245732</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>190420</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>163241</v>
+        <v>162362</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>218442</v>
+        <v>217740</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2645870775770141</v>
+        <v>0.2645870775770142</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2268226346252153</v>
+        <v>0.2256010195915147</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3035238161691556</v>
+        <v>0.3025480098745315</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>403</v>
@@ -2064,19 +2064,19 @@
         <v>311294</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>286044</v>
+        <v>285970</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>337190</v>
+        <v>334938</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.4032011553685071</v>
+        <v>0.403201155368507</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3704960691482994</v>
+        <v>0.370399993964275</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4367417651808663</v>
+        <v>0.4338255599139774</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>561</v>
@@ -2085,19 +2085,19 @@
         <v>501714</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>467066</v>
+        <v>465112</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>547387</v>
+        <v>538874</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3363272356622738</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3131007900438348</v>
+        <v>0.3117908119051243</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3669440122520499</v>
+        <v>0.361237519136946</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>529267</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>501245</v>
+        <v>501947</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>556446</v>
+        <v>557325</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7354129224229858</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6964761838308444</v>
+        <v>0.6974519901254682</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7731773653747847</v>
+        <v>0.7743989804084852</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>557</v>
@@ -2135,19 +2135,19 @@
         <v>460763</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>434867</v>
+        <v>437119</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>486013</v>
+        <v>486087</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5967988446314928</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5632582348191337</v>
+        <v>0.5661744400860226</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6295039308517006</v>
+        <v>0.6296000060357252</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>998</v>
@@ -2156,19 +2156,19 @@
         <v>990030</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>944357</v>
+        <v>952870</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1024678</v>
+        <v>1026632</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6636727643377262</v>
+        <v>0.6636727643377264</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6330559877479501</v>
+        <v>0.6387624808630534</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6868992099561652</v>
+        <v>0.6882091880948759</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>103814</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>86717</v>
+        <v>85822</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>125664</v>
+        <v>121705</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1300805659798963</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1086583934776028</v>
+        <v>0.1075372148878705</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1574596599160017</v>
+        <v>0.1524984279292241</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>358</v>
@@ -2281,19 +2281,19 @@
         <v>247637</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>225787</v>
+        <v>223891</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>271378</v>
+        <v>270880</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2978799279175948</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2715972804398419</v>
+        <v>0.2693162696950099</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3264379495345057</v>
+        <v>0.3258389731956767</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>476</v>
@@ -2302,19 +2302,19 @@
         <v>351451</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>319389</v>
+        <v>321506</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>381174</v>
+        <v>380474</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2156928161170747</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1960158491541507</v>
+        <v>0.1973150390374435</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2339350642904454</v>
+        <v>0.2335049035957983</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>694258</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>672408</v>
+        <v>676367</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>711355</v>
+        <v>712250</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8699194340201035</v>
+        <v>0.8699194340201037</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8425403400839984</v>
+        <v>0.8475015720707758</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8913416065223974</v>
+        <v>0.8924627851121295</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>704</v>
@@ -2352,19 +2352,19 @@
         <v>583694</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>559953</v>
+        <v>560451</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>605544</v>
+        <v>607440</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7021200720824052</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6735620504654942</v>
+        <v>0.674161026804323</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7284027195601582</v>
+        <v>0.73068373030499</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1348</v>
@@ -2373,19 +2373,19 @@
         <v>1277952</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1248229</v>
+        <v>1248929</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1310014</v>
+        <v>1307897</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7843071838829252</v>
+        <v>0.7843071838829253</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7660649357095547</v>
+        <v>0.7664950964042015</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8039841508458494</v>
+        <v>0.8026849609625564</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>828035</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>778995</v>
+        <v>774614</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>883192</v>
+        <v>888208</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2343875668078073</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2205059173152155</v>
+        <v>0.2192657142338669</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2500003067216884</v>
+        <v>0.251420363277917</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2292</v>
@@ -2498,19 +2498,19 @@
         <v>1439640</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1388686</v>
+        <v>1387524</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1492286</v>
+        <v>1489093</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.3852442282092558</v>
+        <v>0.3852442282092557</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3716091974299672</v>
+        <v>0.3712981889071949</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.399332062798248</v>
+        <v>0.3984778390431452</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3165</v>
@@ -2519,19 +2519,19 @@
         <v>2267675</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2193879</v>
+        <v>2196826</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2343814</v>
+        <v>2351763</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3119345333659548</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3017833033591725</v>
+        <v>0.3021886901114751</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3224079061697446</v>
+        <v>0.323501419293903</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>2704727</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2649570</v>
+        <v>2644554</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2753767</v>
+        <v>2758148</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.765612433192193</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7499996932783118</v>
+        <v>0.7485796367220827</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7794940826847847</v>
+        <v>0.7807342857661329</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3075</v>
@@ -2569,19 +2569,19 @@
         <v>2297314</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2244668</v>
+        <v>2247861</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2348268</v>
+        <v>2349430</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6147557717907444</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6006679372017519</v>
+        <v>0.6015221609568548</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6283908025700325</v>
+        <v>0.6287018110928051</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5578</v>
@@ -2590,19 +2590,19 @@
         <v>5002041</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4925902</v>
+        <v>4917953</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5075837</v>
+        <v>5072890</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.6880654666340453</v>
+        <v>0.6880654666340452</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6775920938302553</v>
+        <v>0.676498580706097</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6982166966408274</v>
+        <v>0.6978113098885251</v>
       </c>
     </row>
     <row r="30">
